--- a/Data/Bystrategi_Grenland/Klima/Luftforurensing/PM10 og NO2 døgn 2018.xlsx
+++ b/Data/Bystrategi_Grenland/Klima/Luftforurensing/PM10 og NO2 døgn 2018.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\4. Avdeling MHV\Luftovervåkning\Prosjekter\Rådata til interaktivt dashbord TFK (2025)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://telemarkfylke-my.sharepoint.com/personal/even_sannes_riiser_telemarkfylke_no/Documents/Github/Telemark/Data/Bystrategi_Grenland/Klima/Luftforurensing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{362362DE-AAC8-49AA-9879-1A3B6435A48A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{362362DE-AAC8-49AA-9879-1A3B6435A48A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6997B33B-CE05-4D8F-9319-0DB865880F40}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B8E7B772-382A-42AE-B14A-A284773D5E62}"/>
+    <workbookView xWindow="4290" yWindow="615" windowWidth="38610" windowHeight="20985" xr2:uid="{B8E7B772-382A-42AE-B14A-A284773D5E62}"/>
   </bookViews>
   <sheets>
     <sheet name="Tidsserie_2361-2473-2723-2724-1" sheetId="1" r:id="rId1"/>
@@ -922,11 +922,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62469649-4072-40E5-8E0F-2520ACB37383}">
   <dimension ref="A1:T366"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="Y58" sqref="Y58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
